--- a/src/test/java/TestData/TestDataFile.xlsx
+++ b/src/test/java/TestData/TestDataFile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Assignment_Monday\src\test\java\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE21027-440E-4277-83A9-08FF6DD1E76C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EBC2A1-3269-4C52-9958-2BB55AFCB74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Username</t>
   </si>
@@ -37,6 +37,24 @@
   </si>
   <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>New Email Account</t>
+  </si>
+  <si>
+    <t>New email display name</t>
+  </si>
+  <si>
+    <t>test2@mail.com</t>
+  </si>
+  <si>
+    <t>Test 2</t>
+  </si>
+  <si>
+    <t>Store Name</t>
+  </si>
+  <si>
+    <t>Ravinder Store</t>
   </si>
 </sst>
 </file>
@@ -399,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -410,28 +428,49 @@
     <col min="1" max="1" width="30.109375" customWidth="1"/>
     <col min="2" max="2" width="30.77734375" customWidth="1"/>
     <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="1025" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="1025" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{038E8D70-EB5E-4C89-9262-FE6644018CBC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
